--- a/UnityProject/AlpoLib.Unity/Assets/Sample/TableData/Excel/Reward.xlsx
+++ b/UnityProject/AlpoLib.Unity/Assets/Sample/TableData/Excel/Reward.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\core-library-management\Assets\Samples\LocalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98D102-7832-46CA-9BFA-D8EEF46D6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C9E20A-770E-4237-BDB8-F87CA3F5CDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="3885" windowWidth="28800" windowHeight="15345" xr2:uid="{D6B55083-CB5F-4665-B199-B6EA88FD46F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DEFAULT" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Id</t>
   </si>
   <si>
     <t>reward_group_id</t>
@@ -64,8 +57,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IsActive</t>
+  </si>
+  <si>
     <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>Gem</t>
@@ -76,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,9 +434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B747C96-BA92-4023-9A48-AE0F4967E6DD}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
@@ -445,27 +446,27 @@
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,7 +474,7 @@
         <v>310001</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -482,10 +483,10 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -493,7 +494,7 @@
         <v>310002</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -502,10 +503,10 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -513,7 +514,7 @@
         <v>310003</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -522,10 +523,10 @@
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -533,7 +534,7 @@
         <v>310004</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -542,10 +543,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -553,7 +554,7 @@
         <v>310005</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -562,10 +563,10 @@
         <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -573,7 +574,7 @@
         <v>310006</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -582,10 +583,10 @@
         <v>600</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -602,10 +603,10 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -622,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -642,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -662,7 +663,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
